--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Vipr2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.401172666666666</v>
+        <v>5.441829000000001</v>
       </c>
       <c r="H2">
-        <v>10.203518</v>
+        <v>16.325487</v>
       </c>
       <c r="I2">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="J2">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1752366666666667</v>
+        <v>0.124002</v>
       </c>
       <c r="N2">
-        <v>0.52571</v>
+        <v>0.372006</v>
       </c>
       <c r="O2">
-        <v>0.01723504119824304</v>
+        <v>0.01161425268110074</v>
       </c>
       <c r="P2">
-        <v>0.01723504119824304</v>
+        <v>0.01161425268110074</v>
       </c>
       <c r="Q2">
-        <v>0.5960101608644444</v>
+        <v>0.6747976796580002</v>
       </c>
       <c r="R2">
-        <v>5.36409144778</v>
+        <v>6.073179116922001</v>
       </c>
       <c r="S2">
-        <v>0.008792762849921407</v>
+        <v>0.006654273667231425</v>
       </c>
       <c r="T2">
-        <v>0.008792762849921405</v>
+        <v>0.006654273667231425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.401172666666666</v>
+        <v>5.441829000000001</v>
       </c>
       <c r="H3">
-        <v>10.203518</v>
+        <v>16.325487</v>
       </c>
       <c r="I3">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="J3">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>16.651137</v>
       </c>
       <c r="O3">
-        <v>0.5458960875627037</v>
+        <v>0.5198585843927942</v>
       </c>
       <c r="P3">
-        <v>0.5458960875627037</v>
+        <v>0.5198585843927942</v>
       </c>
       <c r="Q3">
-        <v>18.87779734444066</v>
+        <v>30.20421340319101</v>
       </c>
       <c r="R3">
-        <v>169.900176099966</v>
+        <v>271.837920628719</v>
       </c>
       <c r="S3">
-        <v>0.2784985996510467</v>
+        <v>0.2978479445722996</v>
       </c>
       <c r="T3">
-        <v>0.2784985996510467</v>
+        <v>0.2978479445722996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.401172666666666</v>
+        <v>5.441829000000001</v>
       </c>
       <c r="H4">
-        <v>10.203518</v>
+        <v>16.325487</v>
       </c>
       <c r="I4">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="J4">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.428794333333333</v>
+        <v>5.002328333333334</v>
       </c>
       <c r="N4">
-        <v>13.286383</v>
+        <v>15.006985</v>
       </c>
       <c r="O4">
-        <v>0.4355849391882139</v>
+        <v>0.4685271629261051</v>
       </c>
       <c r="P4">
-        <v>0.4355849391882139</v>
+        <v>0.4685271629261051</v>
       </c>
       <c r="Q4">
-        <v>15.06309423282155</v>
+        <v>27.22181539185501</v>
       </c>
       <c r="R4">
-        <v>135.567848095394</v>
+        <v>244.996338526695</v>
       </c>
       <c r="S4">
-        <v>0.2222214050564519</v>
+        <v>0.2684381034446676</v>
       </c>
       <c r="T4">
-        <v>0.2222214050564519</v>
+        <v>0.2684381034446676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.401172666666666</v>
+        <v>2.579868</v>
       </c>
       <c r="H5">
-        <v>10.203518</v>
+        <v>7.739604</v>
       </c>
       <c r="I5">
-        <v>0.5101677883321655</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="J5">
-        <v>0.5101677883321655</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01305433333333333</v>
+        <v>0.124002</v>
       </c>
       <c r="N5">
-        <v>0.039163</v>
+        <v>0.372006</v>
       </c>
       <c r="O5">
-        <v>0.001283932050839421</v>
+        <v>0.01161425268110074</v>
       </c>
       <c r="P5">
-        <v>0.001283932050839421</v>
+        <v>0.01161425268110074</v>
       </c>
       <c r="Q5">
-        <v>0.04440004171488888</v>
+        <v>0.319908791736</v>
       </c>
       <c r="R5">
-        <v>0.3996003754339999</v>
+        <v>2.879179125624</v>
       </c>
       <c r="S5">
-        <v>0.000655020774745529</v>
+        <v>0.003154665039517596</v>
       </c>
       <c r="T5">
-        <v>0.0006550207747455289</v>
+        <v>0.003154665039517596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +788,10 @@
         <v>7.739604</v>
       </c>
       <c r="I6">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="J6">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1752366666666667</v>
+        <v>5.550379</v>
       </c>
       <c r="N6">
-        <v>0.52571</v>
+        <v>16.651137</v>
       </c>
       <c r="O6">
-        <v>0.01723504119824304</v>
+        <v>0.5198585843927942</v>
       </c>
       <c r="P6">
-        <v>0.01723504119824304</v>
+        <v>0.5198585843927942</v>
       </c>
       <c r="Q6">
-        <v>0.45208746876</v>
+        <v>14.319245169972</v>
       </c>
       <c r="R6">
-        <v>4.06878721884</v>
+        <v>128.873206529748</v>
       </c>
       <c r="S6">
-        <v>0.006669513644637382</v>
+        <v>0.1412040659616186</v>
       </c>
       <c r="T6">
-        <v>0.00666951364463738</v>
+        <v>0.1412040659616186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +850,10 @@
         <v>7.739604</v>
       </c>
       <c r="I7">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="J7">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +862,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.550379</v>
+        <v>5.002328333333334</v>
       </c>
       <c r="N7">
-        <v>16.651137</v>
+        <v>15.006985</v>
       </c>
       <c r="O7">
-        <v>0.5458960875627037</v>
+        <v>0.4685271629261051</v>
       </c>
       <c r="P7">
-        <v>0.5458960875627037</v>
+        <v>0.4685271629261051</v>
       </c>
       <c r="Q7">
-        <v>14.319245169972</v>
+        <v>12.90534679266</v>
       </c>
       <c r="R7">
-        <v>128.873206529748</v>
+        <v>116.14812113394</v>
       </c>
       <c r="S7">
-        <v>0.2112476183071015</v>
+        <v>0.1272614176332236</v>
       </c>
       <c r="T7">
-        <v>0.2112476183071015</v>
+        <v>0.1272614176332236</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +906,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.579868</v>
+        <v>1.476376</v>
       </c>
       <c r="H8">
-        <v>7.739604</v>
+        <v>4.429128</v>
       </c>
       <c r="I8">
-        <v>0.3869740471126509</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="J8">
-        <v>0.3869740471126509</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.428794333333333</v>
+        <v>0.124002</v>
       </c>
       <c r="N8">
-        <v>13.286383</v>
+        <v>0.372006</v>
       </c>
       <c r="O8">
-        <v>0.4355849391882139</v>
+        <v>0.01161425268110074</v>
       </c>
       <c r="P8">
-        <v>0.4355849391882139</v>
+        <v>0.01161425268110074</v>
       </c>
       <c r="Q8">
-        <v>11.425704779148</v>
+        <v>0.183073576752</v>
       </c>
       <c r="R8">
-        <v>102.831343012332</v>
+        <v>1.647662190768</v>
       </c>
       <c r="S8">
-        <v>0.1685600667789811</v>
+        <v>0.001805313974351723</v>
       </c>
       <c r="T8">
-        <v>0.1685600667789811</v>
+        <v>0.001805313974351723</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.579868</v>
+        <v>1.476376</v>
       </c>
       <c r="H9">
-        <v>7.739604</v>
+        <v>4.429128</v>
       </c>
       <c r="I9">
-        <v>0.3869740471126509</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="J9">
-        <v>0.3869740471126509</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01305433333333333</v>
+        <v>5.550379</v>
       </c>
       <c r="N9">
-        <v>0.039163</v>
+        <v>16.651137</v>
       </c>
       <c r="O9">
-        <v>0.001283932050839421</v>
+        <v>0.5198585843927942</v>
       </c>
       <c r="P9">
-        <v>0.001283932050839421</v>
+        <v>0.5198585843927942</v>
       </c>
       <c r="Q9">
-        <v>0.033678456828</v>
+        <v>8.194446346504</v>
       </c>
       <c r="R9">
-        <v>0.3031061114519999</v>
+        <v>73.75001711853599</v>
       </c>
       <c r="S9">
-        <v>0.0004968483819309767</v>
+        <v>0.08080657385887599</v>
       </c>
       <c r="T9">
-        <v>0.0004968483819309767</v>
+        <v>0.080806573858876</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6857320000000001</v>
+        <v>1.476376</v>
       </c>
       <c r="H10">
-        <v>2.057196</v>
+        <v>4.429128</v>
       </c>
       <c r="I10">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="J10">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1752366666666667</v>
+        <v>5.002328333333334</v>
       </c>
       <c r="N10">
-        <v>0.52571</v>
+        <v>15.006985</v>
       </c>
       <c r="O10">
-        <v>0.01723504119824304</v>
+        <v>0.4685271629261051</v>
       </c>
       <c r="P10">
-        <v>0.01723504119824304</v>
+        <v>0.4685271629261051</v>
       </c>
       <c r="Q10">
-        <v>0.1201653899066667</v>
+        <v>7.385317495453335</v>
       </c>
       <c r="R10">
-        <v>1.08148850916</v>
+        <v>66.46785745908001</v>
       </c>
       <c r="S10">
-        <v>0.001772764703684252</v>
+        <v>0.07282764184821398</v>
       </c>
       <c r="T10">
-        <v>0.001772764703684251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.6857320000000001</v>
-      </c>
-      <c r="H11">
-        <v>2.057196</v>
-      </c>
-      <c r="I11">
-        <v>0.1028581645551836</v>
-      </c>
-      <c r="J11">
-        <v>0.1028581645551836</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.550379</v>
-      </c>
-      <c r="N11">
-        <v>16.651137</v>
-      </c>
-      <c r="O11">
-        <v>0.5458960875627037</v>
-      </c>
-      <c r="P11">
-        <v>0.5458960875627037</v>
-      </c>
-      <c r="Q11">
-        <v>3.806072492428</v>
-      </c>
-      <c r="R11">
-        <v>34.254652431852</v>
-      </c>
-      <c r="S11">
-        <v>0.05614986960455549</v>
-      </c>
-      <c r="T11">
-        <v>0.05614986960455548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.6857320000000001</v>
-      </c>
-      <c r="H12">
-        <v>2.057196</v>
-      </c>
-      <c r="I12">
-        <v>0.1028581645551836</v>
-      </c>
-      <c r="J12">
-        <v>0.1028581645551836</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>4.428794333333333</v>
-      </c>
-      <c r="N12">
-        <v>13.286383</v>
-      </c>
-      <c r="O12">
-        <v>0.4355849391882139</v>
-      </c>
-      <c r="P12">
-        <v>0.4355849391882139</v>
-      </c>
-      <c r="Q12">
-        <v>3.036965995785334</v>
-      </c>
-      <c r="R12">
-        <v>27.33269396206801</v>
-      </c>
-      <c r="S12">
-        <v>0.04480346735278096</v>
-      </c>
-      <c r="T12">
-        <v>0.04480346735278094</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.6857320000000001</v>
-      </c>
-      <c r="H13">
-        <v>2.057196</v>
-      </c>
-      <c r="I13">
-        <v>0.1028581645551836</v>
-      </c>
-      <c r="J13">
-        <v>0.1028581645551836</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.01305433333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.039163</v>
-      </c>
-      <c r="O13">
-        <v>0.001283932050839421</v>
-      </c>
-      <c r="P13">
-        <v>0.001283932050839421</v>
-      </c>
-      <c r="Q13">
-        <v>0.008951774105333335</v>
-      </c>
-      <c r="R13">
-        <v>0.080565966948</v>
-      </c>
-      <c r="S13">
-        <v>0.0001320628941629155</v>
-      </c>
-      <c r="T13">
-        <v>0.0001320628941629155</v>
+        <v>0.072827641848214</v>
       </c>
     </row>
   </sheetData>
